--- a/Parametros DH.xlsx
+++ b/Parametros DH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\william\Documents\William\Ing. Mecatrònica\Doceavo Semestre\Robotica\Laboratorio 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\william\Documents\William\Ing. Mecatrònica\Doceavo Semestre\Robotica\Laboratorio 2\Repositorio GitHub\robotica-laboratorio2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C57EC1-BF30-495C-8575-56EE4B58CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDCC9F6-DEA7-4EEA-9D73-836A3FDCD4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6F3A47A9-AD7E-48F2-AFAE-2460B48B6EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>a</t>
   </si>
@@ -82,13 +82,31 @@
   </si>
   <si>
     <t>-pi/2</t>
+  </si>
+  <si>
+    <t>330 mm</t>
+  </si>
+  <si>
+    <t>88 mm</t>
+  </si>
+  <si>
+    <t>310 mm</t>
+  </si>
+  <si>
+    <t>40 mm</t>
+  </si>
+  <si>
+    <t>305 mm</t>
+  </si>
+  <si>
+    <t>86,5 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +118,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC539699-9AC2-4BA1-9DBA-F26B2DF0EF10}">
-  <dimension ref="B3:G9"/>
+  <dimension ref="B3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +504,7 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -498,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -517,8 +541,14 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -526,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -537,8 +567,14 @@
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -546,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -557,8 +593,14 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -566,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -577,8 +619,14 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -597,8 +645,14 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -609,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -617,8 +671,15 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>